--- a/RS/Labs/Lab4/Graphs & Calcs/ahorro_DW.xlsx
+++ b/RS/Labs/Lab4/Graphs & Calcs/ahorro_DW.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stephgrotewold/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stephgrotewold/Desktop/UFM/Sexto Semestre/Data Wrangling/Data-Wrangling/RS/Labs/Lab4/Graphs &amp; Calcs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9301F1F-FBAC-6646-A9D9-DAB97D1CB325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A96EEE1D-169B-C44F-ABFE-B483135A23A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="13860" xr2:uid="{7A0842AB-9AB7-DA46-8413-BD8C5DD5B64B}"/>
   </bookViews>
@@ -3249,8 +3249,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{994054F1-435C-544E-85F3-1C4A0FC36634}">
   <dimension ref="B2:AB34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I3" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="K4" workbookViewId="0">
+      <selection activeCell="S29" sqref="S29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3908,7 +3908,7 @@
         <v>33070.5</v>
       </c>
       <c r="S27" s="1">
-        <v>15000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="28" spans="2:23" x14ac:dyDescent="0.2">
@@ -3929,7 +3929,7 @@
       </c>
       <c r="S28" s="1">
         <f>S26-S27</f>
-        <v>52555.5</v>
+        <v>57555.5</v>
       </c>
     </row>
     <row r="30" spans="2:23" x14ac:dyDescent="0.2">
